--- a/tools/scf_toolbox/mapping-soc2-2017-rev-2022-and-scf-2025.2.2.xlsx
+++ b/tools/scf_toolbox/mapping-soc2-2017-rev-2022-and-scf-2025.2.2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abder/mydev/intuitem/staging/ciso-assistant-community/tools/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abder/mydev/intuitem/staging/ciso-assistant-community/tools/scf_toolbox/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BDB7613-8301-B244-9B59-1EF263B32E8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0E35A62-0E3A-B449-A1D1-E7822CC4006D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4020" yWindow="-28020" windowWidth="50880" windowHeight="27860" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4020" yWindow="-28020" windowWidth="50880" windowHeight="27860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="library_meta" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12755" uniqueCount="8393">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12755" uniqueCount="8395">
   <si>
     <t>type</t>
   </si>
@@ -25564,6 +25564,12 @@
   </si>
   <si>
     <t>pi1.5.4</t>
+  </si>
+  <si>
+    <t>SCF - CC BY-ND 4.0</t>
+  </si>
+  <si>
+    <t>SCF</t>
   </si>
 </sst>
 </file>
@@ -25924,8 +25930,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView zoomScale="210" zoomScaleNormal="210" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+    <sheetView tabSelected="1" zoomScale="210" zoomScaleNormal="210" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:XFD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -25991,7 +25997,7 @@
         <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>8393</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
@@ -25999,7 +26005,7 @@
         <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>8394</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
@@ -26112,7 +26118,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C1478"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="260" workbookViewId="0">
+    <sheetView zoomScale="260" workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
